--- a/Code/Results/Cases/Case_3_81/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_81/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.025932614144295</v>
+        <v>0.4490761131189629</v>
       </c>
       <c r="C2">
-        <v>0.137807160262355</v>
+        <v>0.04004426199074373</v>
       </c>
       <c r="D2">
-        <v>0.3549108605171796</v>
+        <v>0.2875994519771581</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8720614303155116</v>
+        <v>1.498101536507988</v>
       </c>
       <c r="G2">
-        <v>0.000809094267979358</v>
+        <v>0.002461461266048388</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4342024728312879</v>
+        <v>0.3501554756335281</v>
       </c>
       <c r="K2">
-        <v>1.067714603758645</v>
+        <v>0.4123360384060959</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7776943469187461</v>
+        <v>1.614479840121912</v>
       </c>
       <c r="O2">
-        <v>1.749875832059502</v>
+        <v>3.423728209994778</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8910512937771102</v>
+        <v>0.4108558859743141</v>
       </c>
       <c r="C3">
-        <v>0.1213114383715777</v>
+        <v>0.03495564479990776</v>
       </c>
       <c r="D3">
-        <v>0.3120331779945218</v>
+        <v>0.2773086194918193</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8280588060435576</v>
+        <v>1.497412064146481</v>
       </c>
       <c r="G3">
-        <v>0.0008128870127008248</v>
+        <v>0.00246396260673315</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.383617672381277</v>
+        <v>0.3388457038141723</v>
       </c>
       <c r="K3">
-        <v>0.9272954247778671</v>
+        <v>0.3716892487181838</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8188762237486191</v>
+        <v>1.631882314868638</v>
       </c>
       <c r="O3">
-        <v>1.708670109058517</v>
+        <v>3.438086904713998</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8085401164273094</v>
+        <v>0.3875055162888543</v>
       </c>
       <c r="C4">
-        <v>0.1111820756080988</v>
+        <v>0.03181911584162833</v>
       </c>
       <c r="D4">
-        <v>0.2859660384899883</v>
+        <v>0.2711221100779113</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.802586896092059</v>
+        <v>1.497785075238632</v>
       </c>
       <c r="G4">
-        <v>0.000815292800777145</v>
+        <v>0.002465580801574744</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3530738336398969</v>
+        <v>0.3321060681798542</v>
       </c>
       <c r="K4">
-        <v>0.841307389893899</v>
+        <v>0.3467961042615002</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8452478928975631</v>
+        <v>1.643111982848032</v>
       </c>
       <c r="O4">
-        <v>1.686886627412804</v>
+        <v>3.448702506425576</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7749791913499564</v>
+        <v>0.3780199714763626</v>
       </c>
       <c r="C5">
-        <v>0.1070526097495303</v>
+        <v>0.03053797169705774</v>
       </c>
       <c r="D5">
-        <v>0.2754024606584125</v>
+        <v>0.2686343921312755</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7925749515060261</v>
+        <v>1.498137376502292</v>
       </c>
       <c r="G5">
-        <v>0.0008162928975726103</v>
+        <v>0.002466261001336774</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3407448693779429</v>
+        <v>0.3294110401265726</v>
       </c>
       <c r="K5">
-        <v>0.8063103656846522</v>
+        <v>0.3366685838594492</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8562609275709905</v>
+        <v>1.647825064109269</v>
       </c>
       <c r="O5">
-        <v>1.678852152874967</v>
+        <v>3.453480858761537</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7694098381918764</v>
+        <v>0.3764467258060336</v>
       </c>
       <c r="C6">
-        <v>0.1063667740837246</v>
+        <v>0.03032506025050452</v>
       </c>
       <c r="D6">
-        <v>0.2736517698184144</v>
+        <v>0.2682233252361925</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7909341216948889</v>
+        <v>1.498207974689727</v>
       </c>
       <c r="G6">
-        <v>0.0008164601638460126</v>
+        <v>0.002466375204218713</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3387044443824436</v>
+        <v>0.3289666382615479</v>
       </c>
       <c r="K6">
-        <v>0.8005013872583788</v>
+        <v>0.3349879366684547</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8581055325561264</v>
+        <v>1.648615935772308</v>
       </c>
       <c r="O6">
-        <v>1.677567731953602</v>
+        <v>3.454301623741387</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8080872647441026</v>
+        <v>0.3873774691062124</v>
       </c>
       <c r="C7">
-        <v>0.1111263927752759</v>
+        <v>0.03180184988332257</v>
       </c>
       <c r="D7">
-        <v>0.2858233436990787</v>
+        <v>0.2710884247170497</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8024504077656118</v>
+        <v>1.497789015443544</v>
       </c>
       <c r="G7">
-        <v>0.0008153062080850659</v>
+        <v>0.00246558989090002</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3529070985798342</v>
+        <v>0.3320695138873333</v>
       </c>
       <c r="K7">
-        <v>0.8408352483986334</v>
+        <v>0.3466594529399742</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8453953486018491</v>
+        <v>1.643174990823832</v>
       </c>
       <c r="O7">
-        <v>1.686774914401155</v>
+        <v>3.448765117231332</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9793532017919233</v>
+        <v>0.4358737814306721</v>
       </c>
       <c r="C8">
-        <v>0.1321187292292905</v>
+        <v>0.03829225139955383</v>
       </c>
       <c r="D8">
-        <v>0.3400687369215802</v>
+        <v>0.2840238209979589</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8565557040933243</v>
+        <v>1.497698548069522</v>
       </c>
       <c r="G8">
-        <v>0.0008103862348155004</v>
+        <v>0.00246230667139308</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.416646597017504</v>
+        <v>0.346213381598119</v>
       </c>
       <c r="K8">
-        <v>1.019241630318618</v>
+        <v>0.3983080027858819</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7916643798353942</v>
+        <v>1.620367200630064</v>
       </c>
       <c r="O8">
-        <v>1.734912251584518</v>
+        <v>3.428305611767144</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.318324655769459</v>
+        <v>0.5318862884136877</v>
       </c>
       <c r="C9">
-        <v>0.1733487380532637</v>
+        <v>0.05092192898327141</v>
       </c>
       <c r="D9">
-        <v>0.4488156100439937</v>
+        <v>0.3104347204198916</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9759128440904448</v>
+        <v>1.503839791265776</v>
       </c>
       <c r="G9">
-        <v>0.0008013326568357615</v>
+        <v>0.002456518972684715</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5462954335637846</v>
+        <v>0.3755758483228249</v>
       </c>
       <c r="K9">
-        <v>1.371609260749892</v>
+        <v>0.5000824528152918</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6952283209531087</v>
+        <v>1.579961292561864</v>
       </c>
       <c r="O9">
-        <v>1.859219180773863</v>
+        <v>3.402465838102671</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.570309246118029</v>
+        <v>0.6029667068298181</v>
       </c>
       <c r="C10">
-        <v>0.2037891475524276</v>
+        <v>0.06013942043091447</v>
       </c>
       <c r="D10">
-        <v>0.5306224487147517</v>
+        <v>0.330473170175253</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.073157370239173</v>
+        <v>1.512206796440125</v>
       </c>
       <c r="G10">
-        <v>0.000795018733631729</v>
+        <v>0.002452659474522717</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.6452337790680502</v>
+        <v>0.3981466537149032</v>
       </c>
       <c r="K10">
-        <v>1.633071585470958</v>
+        <v>0.5751403753493207</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6302800369791215</v>
+        <v>1.552907618536221</v>
       </c>
       <c r="O10">
-        <v>1.971747573760155</v>
+        <v>3.392197840763913</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.685832330065693</v>
+        <v>0.6354174256632916</v>
       </c>
       <c r="C11">
-        <v>0.2176962978174259</v>
+        <v>0.06431900631814358</v>
       </c>
       <c r="D11">
-        <v>0.568364670946778</v>
+        <v>0.3397265393020916</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.119822149197688</v>
+        <v>1.516851108922978</v>
       </c>
       <c r="G11">
-        <v>0.0007922139026392469</v>
+        <v>0.002450988124911287</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.691247107313373</v>
+        <v>0.4086330448536017</v>
       </c>
       <c r="K11">
-        <v>1.752829142397303</v>
+        <v>0.6093450362159842</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6021245788246508</v>
+        <v>1.541171612212112</v>
       </c>
       <c r="O11">
-        <v>2.028251017041327</v>
+        <v>3.389421885269314</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.729728467818376</v>
+        <v>0.6477219239061469</v>
       </c>
       <c r="C12">
-        <v>0.2229735258020042</v>
+        <v>0.06589971793742677</v>
       </c>
       <c r="D12">
-        <v>0.5827424427220933</v>
+        <v>0.3432502763394041</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.13787347686818</v>
+        <v>1.518730324566476</v>
       </c>
       <c r="G12">
-        <v>0.0007911609722159264</v>
+        <v>0.002450367294980746</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.7088340060717968</v>
+        <v>0.4126355026395458</v>
       </c>
       <c r="K12">
-        <v>1.798317899525784</v>
+        <v>0.6223057285193647</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5916726911920223</v>
+        <v>1.536809602930466</v>
       </c>
       <c r="O12">
-        <v>2.050475096060353</v>
+        <v>3.388643353157846</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.72026761574952</v>
+        <v>0.6450712220500066</v>
       </c>
       <c r="C13">
-        <v>0.2218364569276616</v>
+        <v>0.06555937371265941</v>
       </c>
       <c r="D13">
-        <v>0.5796419623572149</v>
+        <v>0.3424905029372098</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.133968359644925</v>
+        <v>1.518320241988533</v>
       </c>
       <c r="G13">
-        <v>0.0007913873387449015</v>
+        <v>0.002450500465784012</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.7050388168144792</v>
+        <v>0.4117721008973803</v>
       </c>
       <c r="K13">
-        <v>1.788514528830433</v>
+        <v>0.6195140589017285</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5939141848043819</v>
+        <v>1.537745384294297</v>
       </c>
       <c r="O13">
-        <v>2.045650883212119</v>
+        <v>3.388798894671112</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.689440555520633</v>
+        <v>0.6364294043053178</v>
       </c>
       <c r="C14">
-        <v>0.2181302262840035</v>
+        <v>0.06444909301336565</v>
       </c>
       <c r="D14">
-        <v>0.5695457649118225</v>
+        <v>0.3400160454327477</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.121299431801177</v>
+        <v>1.517003297849456</v>
       </c>
       <c r="G14">
-        <v>0.0007921270960287343</v>
+        <v>0.002450936807043265</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.6926906240764197</v>
+        <v>0.4089616982470545</v>
       </c>
       <c r="K14">
-        <v>1.756568610452973</v>
+        <v>0.6104111604566924</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.601260427056268</v>
+        <v>1.540811100003815</v>
       </c>
       <c r="O14">
-        <v>2.030062442581198</v>
+        <v>3.389352369480264</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.670578298024878</v>
+        <v>0.6311381238263891</v>
       </c>
       <c r="C15">
-        <v>0.2158615435187841</v>
+        <v>0.0637687507189213</v>
       </c>
       <c r="D15">
-        <v>0.5633730020333019</v>
+        <v>0.3385029288606063</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.113589853333451</v>
+        <v>1.516212326029162</v>
       </c>
       <c r="G15">
-        <v>0.000792581401320505</v>
+        <v>0.00245120564963132</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.685148740060086</v>
+        <v>0.4072443469536182</v>
       </c>
       <c r="K15">
-        <v>1.737019609202378</v>
+        <v>0.604836414380344</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6057878697524055</v>
+        <v>1.542699641531293</v>
       </c>
       <c r="O15">
-        <v>2.020623790577559</v>
+        <v>3.389726902246991</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.562779331691246</v>
+        <v>0.6008482609871351</v>
       </c>
       <c r="C16">
-        <v>0.2028816763035195</v>
+        <v>0.05986599742395526</v>
       </c>
       <c r="D16">
-        <v>0.5281673410100325</v>
+        <v>0.3298712024802626</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.070159191865955</v>
+        <v>1.511920144357944</v>
       </c>
       <c r="G16">
-        <v>0.0007952033506849815</v>
+        <v>0.002452770393808031</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.6422484476138806</v>
+        <v>0.3974657485820927</v>
       </c>
       <c r="K16">
-        <v>1.625263403767605</v>
+        <v>0.5729061884801752</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6321488781672433</v>
+        <v>1.553686087340454</v>
       </c>
       <c r="O16">
-        <v>1.968167176925306</v>
+        <v>3.392417402231047</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.496891929873385</v>
+        <v>0.5822957009148979</v>
       </c>
       <c r="C17">
-        <v>0.1949358123066958</v>
+        <v>0.05746828075831445</v>
       </c>
       <c r="D17">
-        <v>0.5067116893603156</v>
+        <v>0.3246111171098391</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.04415923915694</v>
+        <v>1.509501688766861</v>
       </c>
       <c r="G17">
-        <v>0.0007968287538453067</v>
+        <v>0.002453751878866369</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.6162005018154275</v>
+        <v>0.391522956646881</v>
       </c>
       <c r="K17">
-        <v>1.556928760351923</v>
+        <v>0.5533331089110334</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6486834513080875</v>
+        <v>1.56057217545818</v>
       </c>
       <c r="O17">
-        <v>1.937391353152378</v>
+        <v>3.394553408954749</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.459078009619816</v>
+        <v>0.5716356989996996</v>
       </c>
       <c r="C18">
-        <v>0.1903710267100394</v>
+        <v>0.056087911066939</v>
       </c>
       <c r="D18">
-        <v>0.4944200301779063</v>
+        <v>0.3215986309503762</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.029431262134153</v>
+        <v>1.508189545197538</v>
       </c>
       <c r="G18">
-        <v>0.0007977700185245047</v>
+        <v>0.002454324346575199</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.6013119226620063</v>
+        <v>0.3881254148126914</v>
       </c>
       <c r="K18">
-        <v>1.517699989836132</v>
+        <v>0.5420809132278634</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.658323872534027</v>
+        <v>1.56458659724328</v>
       </c>
       <c r="O18">
-        <v>1.920186009051633</v>
+        <v>3.395960340879498</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.446288453058173</v>
+        <v>0.5680283011603251</v>
       </c>
       <c r="C19">
-        <v>0.18882634007565</v>
+        <v>0.05562032609940104</v>
       </c>
       <c r="D19">
-        <v>0.4902664284497575</v>
+        <v>0.3205808873188687</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.024482608951956</v>
+        <v>1.507758825206395</v>
       </c>
       <c r="G19">
-        <v>0.0007980898242347921</v>
+        <v>0.002454519540351412</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.5962864393784884</v>
+        <v>0.386978601999715</v>
       </c>
       <c r="K19">
-        <v>1.504430137243844</v>
+        <v>0.5382721129621757</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6616100139273451</v>
+        <v>1.565955036757172</v>
       </c>
       <c r="O19">
-        <v>1.914443924158462</v>
+        <v>3.396467331984866</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.503897039262313</v>
+        <v>0.5842695243332798</v>
       </c>
       <c r="C20">
-        <v>0.1957810813300256</v>
+        <v>0.05772365334665608</v>
       </c>
       <c r="D20">
-        <v>0.5089905341672534</v>
+        <v>0.3251697201357615</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.046903316454632</v>
+        <v>1.50975097290484</v>
       </c>
       <c r="G20">
-        <v>0.0007966550704971373</v>
+        <v>0.002453646576407905</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.618963546019998</v>
+        <v>0.3921534453290718</v>
       </c>
       <c r="K20">
-        <v>1.564195133147592</v>
+        <v>0.555416108503465</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6469097744346111</v>
+        <v>1.559833578645581</v>
       </c>
       <c r="O20">
-        <v>1.940615703850455</v>
+        <v>3.394307566897226</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.698490958566055</v>
+        <v>0.6389672826622359</v>
       </c>
       <c r="C21">
-        <v>0.2192185210283668</v>
+        <v>0.06477526435786274</v>
       </c>
       <c r="D21">
-        <v>0.5725088583941158</v>
+        <v>0.3407423202852158</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.125010018558839</v>
+        <v>1.517386845558249</v>
       </c>
       <c r="G21">
-        <v>0.0007919095658053698</v>
+        <v>0.002450808315843955</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.6963130227263434</v>
+        <v>0.4097863268458894</v>
       </c>
       <c r="K21">
-        <v>1.765947942857593</v>
+        <v>0.6130846862234876</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5990968748256664</v>
+        <v>1.539908394533268</v>
       </c>
       <c r="O21">
-        <v>2.034618160660273</v>
+        <v>3.389182399247943</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.826555130231668</v>
+        <v>0.6748091075093612</v>
       </c>
       <c r="C22">
-        <v>0.2346009500781037</v>
+        <v>0.06937217181007327</v>
       </c>
       <c r="D22">
-        <v>0.6145258057407261</v>
+        <v>0.3510346069913055</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.178290679642259</v>
+        <v>1.523079782658641</v>
       </c>
       <c r="G22">
-        <v>0.0007888614650306278</v>
+        <v>0.002449023699071744</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.7478228238723261</v>
+        <v>0.42149398672872</v>
       </c>
       <c r="K22">
-        <v>1.898627554167092</v>
+        <v>0.6508215605513783</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.569077487806839</v>
+        <v>1.527365072405015</v>
       </c>
       <c r="O22">
-        <v>2.10091004369832</v>
+        <v>3.387422164472611</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.75811628718688</v>
+        <v>0.6556712606525252</v>
       </c>
       <c r="C23">
-        <v>0.226384320097992</v>
+        <v>0.0669198106687503</v>
       </c>
       <c r="D23">
-        <v>0.5920510489631283</v>
+        <v>0.3455309670376039</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.149638480316995</v>
+        <v>1.519977082270117</v>
       </c>
       <c r="G23">
-        <v>0.0007904835832696214</v>
+        <v>0.002449969763994753</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.7202371396028013</v>
+        <v>0.4152285857738747</v>
       </c>
       <c r="K23">
-        <v>1.827731079704222</v>
+        <v>0.630676553899832</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5849834035355808</v>
+        <v>1.534015831219417</v>
       </c>
       <c r="O23">
-        <v>2.065062341526925</v>
+        <v>3.388216154708743</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.5007298265065</v>
+        <v>0.5833771396863199</v>
       </c>
       <c r="C24">
-        <v>0.1953989247944463</v>
+        <v>0.05760820528408317</v>
       </c>
       <c r="D24">
-        <v>0.5079601337218662</v>
+        <v>0.3249171395452208</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.045662036998337</v>
+        <v>1.509638027772354</v>
       </c>
       <c r="G24">
-        <v>0.0007967335714871089</v>
+        <v>0.002453694158176443</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.6177141049303145</v>
+        <v>0.3918683420669282</v>
       </c>
       <c r="K24">
-        <v>1.560909827821007</v>
+        <v>0.5544743823880651</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.647711235646578</v>
+        <v>1.560167325330822</v>
       </c>
       <c r="O24">
-        <v>1.93915645935266</v>
+        <v>3.394418154792049</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.226186756665669</v>
+        <v>0.5058164016550393</v>
       </c>
       <c r="C25">
-        <v>0.1621772542439999</v>
+        <v>0.04751594264949688</v>
       </c>
       <c r="D25">
-        <v>0.419096690443979</v>
+        <v>0.3031782918682495</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.9420583488275156</v>
+        <v>1.501501656544733</v>
       </c>
       <c r="G25">
-        <v>0.000803720711399441</v>
+        <v>0.002458015448485164</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5106396406021787</v>
+        <v>0.3674577108974972</v>
       </c>
       <c r="K25">
-        <v>1.275911840257777</v>
+        <v>0.4724987284322424</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7203152500202994</v>
+        <v>1.590429790918178</v>
       </c>
       <c r="O25">
-        <v>1.822094412301908</v>
+        <v>3.407926221071648</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_81/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_81/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4490761131189629</v>
+        <v>1.025932614144409</v>
       </c>
       <c r="C2">
-        <v>0.04004426199074373</v>
+        <v>0.1378071602625965</v>
       </c>
       <c r="D2">
-        <v>0.2875994519771581</v>
+        <v>0.3549108605173643</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.498101536507988</v>
+        <v>0.8720614303154832</v>
       </c>
       <c r="G2">
-        <v>0.002461461266048388</v>
+        <v>0.0008090942679210356</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3501554756335281</v>
+        <v>0.4342024728312026</v>
       </c>
       <c r="K2">
-        <v>0.4123360384060959</v>
+        <v>1.067714603758645</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.614479840121912</v>
+        <v>0.777694346918739</v>
       </c>
       <c r="O2">
-        <v>3.423728209994778</v>
+        <v>1.749875832059473</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4108558859743141</v>
+        <v>0.8910512937772523</v>
       </c>
       <c r="C3">
-        <v>0.03495564479990776</v>
+        <v>0.1213114383714213</v>
       </c>
       <c r="D3">
-        <v>0.2773086194918193</v>
+        <v>0.312033177994536</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.497412064146481</v>
+        <v>0.8280588060435292</v>
       </c>
       <c r="G3">
-        <v>0.00246396260673315</v>
+        <v>0.0008128870127606658</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3388457038141723</v>
+        <v>0.3836176723813907</v>
       </c>
       <c r="K3">
-        <v>0.3716892487181838</v>
+        <v>0.9272954247778387</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.631882314868638</v>
+        <v>0.8188762237485516</v>
       </c>
       <c r="O3">
-        <v>3.438086904713998</v>
+        <v>1.70867010905846</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3875055162888543</v>
+        <v>0.8085401164274231</v>
       </c>
       <c r="C4">
-        <v>0.03181911584162833</v>
+        <v>0.1111820756084967</v>
       </c>
       <c r="D4">
-        <v>0.2711221100779113</v>
+        <v>0.2859660384897893</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.497785075238632</v>
+        <v>0.802586896092059</v>
       </c>
       <c r="G4">
-        <v>0.002465580801574744</v>
+        <v>0.0008152928007197471</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3321060681798542</v>
+        <v>0.3530738336399679</v>
       </c>
       <c r="K4">
-        <v>0.3467961042615002</v>
+        <v>0.8413073898937</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.643111982848032</v>
+        <v>0.8452478928975142</v>
       </c>
       <c r="O4">
-        <v>3.448702506425576</v>
+        <v>1.686886627412704</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3780199714763626</v>
+        <v>0.7749791913497575</v>
       </c>
       <c r="C5">
-        <v>0.03053797169705774</v>
+        <v>0.1070526097495303</v>
       </c>
       <c r="D5">
-        <v>0.2686343921312755</v>
+        <v>0.2754024606585261</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.498137376502292</v>
+        <v>0.7925749515060119</v>
       </c>
       <c r="G5">
-        <v>0.002466261001336774</v>
+        <v>0.0008162928976105377</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3294110401265726</v>
+        <v>0.3407448693779003</v>
       </c>
       <c r="K5">
-        <v>0.3366685838594492</v>
+        <v>0.8063103656845385</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.647825064109269</v>
+        <v>0.8562609275709079</v>
       </c>
       <c r="O5">
-        <v>3.453480858761537</v>
+        <v>1.678852152874924</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3764467258060336</v>
+        <v>0.7694098381917627</v>
       </c>
       <c r="C6">
-        <v>0.03032506025050452</v>
+        <v>0.1063667740835683</v>
       </c>
       <c r="D6">
-        <v>0.2682233252361925</v>
+        <v>0.2736517698183576</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.498207974689727</v>
+        <v>0.7909341216948889</v>
       </c>
       <c r="G6">
-        <v>0.002466375204218713</v>
+        <v>0.0008164601638663513</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3289666382615479</v>
+        <v>0.3387044443823868</v>
       </c>
       <c r="K6">
-        <v>0.3349879366684547</v>
+        <v>0.8005013872584925</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.648615935772308</v>
+        <v>0.8581055325561326</v>
       </c>
       <c r="O6">
-        <v>3.454301623741387</v>
+        <v>1.67756773195353</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3873774691062124</v>
+        <v>0.808087264743989</v>
       </c>
       <c r="C7">
-        <v>0.03180184988332257</v>
+        <v>0.1111263927751338</v>
       </c>
       <c r="D7">
-        <v>0.2710884247170497</v>
+        <v>0.2858233436990361</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.497789015443544</v>
+        <v>0.8024504077656189</v>
       </c>
       <c r="G7">
-        <v>0.00246558989090002</v>
+        <v>0.0008153062081431264</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3320695138873333</v>
+        <v>0.3529070985799194</v>
       </c>
       <c r="K7">
-        <v>0.3466594529399742</v>
+        <v>0.8408352483986334</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.643174990823832</v>
+        <v>0.8453953486018477</v>
       </c>
       <c r="O7">
-        <v>3.448765117231332</v>
+        <v>1.686774914401141</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4358737814306721</v>
+        <v>0.9793532017919802</v>
       </c>
       <c r="C8">
-        <v>0.03829225139955383</v>
+        <v>0.1321187292294468</v>
       </c>
       <c r="D8">
-        <v>0.2840238209979589</v>
+        <v>0.3400687369215802</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.497698548069522</v>
+        <v>0.8565557040933101</v>
       </c>
       <c r="G8">
-        <v>0.00246230667139308</v>
+        <v>0.0008103862347933343</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.346213381598119</v>
+        <v>0.4166465970173903</v>
       </c>
       <c r="K8">
-        <v>0.3983080027858819</v>
+        <v>1.019241630318504</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.620367200630064</v>
+        <v>0.7916643798353782</v>
       </c>
       <c r="O8">
-        <v>3.428305611767144</v>
+        <v>1.734912251584518</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5318862884136877</v>
+        <v>1.318324655769317</v>
       </c>
       <c r="C9">
-        <v>0.05092192898327141</v>
+        <v>0.1733487380533347</v>
       </c>
       <c r="D9">
-        <v>0.3104347204198916</v>
+        <v>0.4488156100439085</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.503839791265776</v>
+        <v>0.975912844090459</v>
       </c>
       <c r="G9">
-        <v>0.002456518972684715</v>
+        <v>0.0008013326568055836</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3755758483228249</v>
+        <v>0.5462954335638557</v>
       </c>
       <c r="K9">
-        <v>0.5000824528152918</v>
+        <v>1.371609260749807</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.579961292561864</v>
+        <v>0.6952283209531038</v>
       </c>
       <c r="O9">
-        <v>3.402465838102671</v>
+        <v>1.859219180773891</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6029667068298181</v>
+        <v>1.570309246118057</v>
       </c>
       <c r="C10">
-        <v>0.06013942043091447</v>
+        <v>0.2037891475523281</v>
       </c>
       <c r="D10">
-        <v>0.330473170175253</v>
+        <v>0.5306224487147517</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.512206796440125</v>
+        <v>1.073157370239201</v>
       </c>
       <c r="G10">
-        <v>0.002452659474522717</v>
+        <v>0.000795018733579366</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3981466537149032</v>
+        <v>0.6452337790681213</v>
       </c>
       <c r="K10">
-        <v>0.5751403753493207</v>
+        <v>1.633071585470901</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.552907618536221</v>
+        <v>0.6302800369791903</v>
       </c>
       <c r="O10">
-        <v>3.392197840763913</v>
+        <v>1.97174757376024</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6354174256632916</v>
+        <v>1.685832330065722</v>
       </c>
       <c r="C11">
-        <v>0.06431900631814358</v>
+        <v>0.2176962978168575</v>
       </c>
       <c r="D11">
-        <v>0.3397265393020916</v>
+        <v>0.5683646709468348</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.516851108922978</v>
+        <v>1.119822149197716</v>
       </c>
       <c r="G11">
-        <v>0.002450988124911287</v>
+        <v>0.000792213902665213</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4086330448536017</v>
+        <v>0.6912471073132593</v>
       </c>
       <c r="K11">
-        <v>0.6093450362159842</v>
+        <v>1.752829142397275</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.541171612212112</v>
+        <v>0.6021245788246641</v>
       </c>
       <c r="O11">
-        <v>3.389421885269314</v>
+        <v>2.028251017041299</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6477219239061469</v>
+        <v>1.729728467818489</v>
       </c>
       <c r="C12">
-        <v>0.06589971793742677</v>
+        <v>0.2229735258017627</v>
       </c>
       <c r="D12">
-        <v>0.3432502763394041</v>
+        <v>0.5827424427221501</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.518730324566476</v>
+        <v>1.137873476868208</v>
       </c>
       <c r="G12">
-        <v>0.002450367294980746</v>
+        <v>0.0007911609722138712</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4126355026395458</v>
+        <v>0.70883400607174</v>
       </c>
       <c r="K12">
-        <v>0.6223057285193647</v>
+        <v>1.79831789952587</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.536809602930466</v>
+        <v>0.591672691191973</v>
       </c>
       <c r="O12">
-        <v>3.388643353157846</v>
+        <v>2.050475096060438</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6450712220500066</v>
+        <v>1.720267615749606</v>
       </c>
       <c r="C13">
-        <v>0.06555937371265941</v>
+        <v>0.2218364569279032</v>
       </c>
       <c r="D13">
-        <v>0.3424905029372098</v>
+        <v>0.5796419623572433</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.518320241988533</v>
+        <v>1.133968359644939</v>
       </c>
       <c r="G13">
-        <v>0.002450500465784012</v>
+        <v>0.0007913873387453448</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4117721008973803</v>
+        <v>0.7050388168144366</v>
       </c>
       <c r="K13">
-        <v>0.6195140589017285</v>
+        <v>1.788514528830149</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.537745384294297</v>
+        <v>0.5939141848043867</v>
       </c>
       <c r="O13">
-        <v>3.388798894671112</v>
+        <v>2.045650883212005</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6364294043053178</v>
+        <v>1.689440555520832</v>
       </c>
       <c r="C14">
-        <v>0.06444909301336565</v>
+        <v>0.2181302262842451</v>
       </c>
       <c r="D14">
-        <v>0.3400160454327477</v>
+        <v>0.5695457649119078</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.517003297849456</v>
+        <v>1.121299431801162</v>
       </c>
       <c r="G14">
-        <v>0.002450936807043265</v>
+        <v>0.0007921270960001821</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4089616982470545</v>
+        <v>0.6926906240763486</v>
       </c>
       <c r="K14">
-        <v>0.6104111604566924</v>
+        <v>1.756568610452916</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.540811100003815</v>
+        <v>0.6012604270561948</v>
       </c>
       <c r="O14">
-        <v>3.389352369480264</v>
+        <v>2.030062442581141</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6311381238263891</v>
+        <v>1.670578298024708</v>
       </c>
       <c r="C15">
-        <v>0.0637687507189213</v>
+        <v>0.2158615435187698</v>
       </c>
       <c r="D15">
-        <v>0.3385029288606063</v>
+        <v>0.5633730020332166</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.516212326029162</v>
+        <v>1.113589853333451</v>
       </c>
       <c r="G15">
-        <v>0.00245120564963132</v>
+        <v>0.0007925814013211971</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4072443469536182</v>
+        <v>0.685148740060086</v>
       </c>
       <c r="K15">
-        <v>0.604836414380344</v>
+        <v>1.737019609202434</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.542699641531293</v>
+        <v>0.6057878697524135</v>
       </c>
       <c r="O15">
-        <v>3.389726902246991</v>
+        <v>2.020623790577616</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6008482609871351</v>
+        <v>1.562779331691303</v>
       </c>
       <c r="C16">
-        <v>0.05986599742395526</v>
+        <v>0.2028816763028232</v>
       </c>
       <c r="D16">
-        <v>0.3298712024802626</v>
+        <v>0.5281673410098904</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.511920144357944</v>
+        <v>1.070159191865955</v>
       </c>
       <c r="G16">
-        <v>0.002452770393808031</v>
+        <v>0.0007952033507390493</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3974657485820927</v>
+        <v>0.6422484476138663</v>
       </c>
       <c r="K16">
-        <v>0.5729061884801752</v>
+        <v>1.625263403767605</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.553686087340454</v>
+        <v>0.6321488781672744</v>
       </c>
       <c r="O16">
-        <v>3.392417402231047</v>
+        <v>1.968167176925306</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5822957009148979</v>
+        <v>1.496891929873442</v>
       </c>
       <c r="C17">
-        <v>0.05746828075831445</v>
+        <v>0.1949358123071363</v>
       </c>
       <c r="D17">
-        <v>0.3246111171098391</v>
+        <v>0.5067116893602304</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.509501688766861</v>
+        <v>1.044159239156926</v>
       </c>
       <c r="G17">
-        <v>0.002453751878866369</v>
+        <v>0.0007968287538175485</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.391522956646881</v>
+        <v>0.6162005018154844</v>
       </c>
       <c r="K17">
-        <v>0.5533331089110334</v>
+        <v>1.556928760351894</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.56057217545818</v>
+        <v>0.6486834513080315</v>
       </c>
       <c r="O17">
-        <v>3.394553408954749</v>
+        <v>1.937391353152321</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5716356989996996</v>
+        <v>1.459078009619986</v>
       </c>
       <c r="C18">
-        <v>0.056087911066939</v>
+        <v>0.1903710267101815</v>
       </c>
       <c r="D18">
-        <v>0.3215986309503762</v>
+        <v>0.4944200301779063</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.508189545197538</v>
+        <v>1.029431262134153</v>
       </c>
       <c r="G18">
-        <v>0.002454324346575199</v>
+        <v>0.0007977700185749118</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3881254148126914</v>
+        <v>0.6013119226619494</v>
       </c>
       <c r="K18">
-        <v>0.5420809132278634</v>
+        <v>1.51769998983616</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.56458659724328</v>
+        <v>0.6583238725340288</v>
       </c>
       <c r="O18">
-        <v>3.395960340879498</v>
+        <v>1.920186009051662</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5680283011603251</v>
+        <v>1.446288453058258</v>
       </c>
       <c r="C19">
-        <v>0.05562032609940104</v>
+        <v>0.1888263400754084</v>
       </c>
       <c r="D19">
-        <v>0.3205808873188687</v>
+        <v>0.4902664284496154</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.507758825206395</v>
+        <v>1.024482608951971</v>
       </c>
       <c r="G19">
-        <v>0.002454519540351412</v>
+        <v>0.0007980898242053163</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.386978601999715</v>
+        <v>0.5962864393785168</v>
       </c>
       <c r="K19">
-        <v>0.5382721129621757</v>
+        <v>1.504430137243929</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.565955036757172</v>
+        <v>0.6616100139273993</v>
       </c>
       <c r="O19">
-        <v>3.396467331984866</v>
+        <v>1.914443924158519</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5842695243332798</v>
+        <v>1.503897039262426</v>
       </c>
       <c r="C20">
-        <v>0.05772365334665608</v>
+        <v>0.1957810813300256</v>
       </c>
       <c r="D20">
-        <v>0.3251697201357615</v>
+        <v>0.5089905341670828</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.50975097290484</v>
+        <v>1.046903316454632</v>
       </c>
       <c r="G20">
-        <v>0.002453646576407905</v>
+        <v>0.0007966550704707257</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3921534453290718</v>
+        <v>0.6189635460199696</v>
       </c>
       <c r="K20">
-        <v>0.555416108503465</v>
+        <v>1.564195133147535</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.559833578645581</v>
+        <v>0.6469097744346035</v>
       </c>
       <c r="O20">
-        <v>3.394307566897226</v>
+        <v>1.940615703850398</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6389672826622359</v>
+        <v>1.69849095856614</v>
       </c>
       <c r="C21">
-        <v>0.06477526435786274</v>
+        <v>0.2192185210281536</v>
       </c>
       <c r="D21">
-        <v>0.3407423202852158</v>
+        <v>0.5725088583941158</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.517386845558249</v>
+        <v>1.125010018558839</v>
       </c>
       <c r="G21">
-        <v>0.002450808315843955</v>
+        <v>0.000791909565833568</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.4097863268458894</v>
+        <v>0.6963130227262724</v>
       </c>
       <c r="K21">
-        <v>0.6130846862234876</v>
+        <v>1.765947942857537</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.539908394533268</v>
+        <v>0.5990968748257113</v>
       </c>
       <c r="O21">
-        <v>3.389182399247943</v>
+        <v>2.034618160660273</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6748091075093612</v>
+        <v>1.826555130231782</v>
       </c>
       <c r="C22">
-        <v>0.06937217181007327</v>
+        <v>0.2346009500781179</v>
       </c>
       <c r="D22">
-        <v>0.3510346069913055</v>
+        <v>0.6145258057406409</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.523079782658641</v>
+        <v>1.178290679642245</v>
       </c>
       <c r="G22">
-        <v>0.002449023699071744</v>
+        <v>0.0007888614650021956</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.42149398672872</v>
+        <v>0.7478228238722693</v>
       </c>
       <c r="K22">
-        <v>0.6508215605513783</v>
+        <v>1.898627554167064</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.527365072405015</v>
+        <v>0.5690774878068408</v>
       </c>
       <c r="O22">
-        <v>3.387422164472611</v>
+        <v>2.100910043698349</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6556712606525252</v>
+        <v>1.758116287186795</v>
       </c>
       <c r="C23">
-        <v>0.0669198106687503</v>
+        <v>0.2263843200977504</v>
       </c>
       <c r="D23">
-        <v>0.3455309670376039</v>
+        <v>0.5920510489630431</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.519977082270117</v>
+        <v>1.149638480316995</v>
       </c>
       <c r="G23">
-        <v>0.002449969763994753</v>
+        <v>0.0007904835832979376</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4152285857738747</v>
+        <v>0.7202371396027303</v>
       </c>
       <c r="K23">
-        <v>0.630676553899832</v>
+        <v>1.827731079704108</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.534015831219417</v>
+        <v>0.5849834035355799</v>
       </c>
       <c r="O23">
-        <v>3.388216154708743</v>
+        <v>2.065062341526783</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5833771396863199</v>
+        <v>1.5007298265065</v>
       </c>
       <c r="C24">
-        <v>0.05760820528408317</v>
+        <v>0.1953989247950148</v>
       </c>
       <c r="D24">
-        <v>0.3249171395452208</v>
+        <v>0.5079601337217525</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.509638027772354</v>
+        <v>1.045662036998337</v>
       </c>
       <c r="G24">
-        <v>0.002453694158176443</v>
+        <v>0.0007967335714869073</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3918683420669282</v>
+        <v>0.6177141049303145</v>
       </c>
       <c r="K24">
-        <v>0.5544743823880651</v>
+        <v>1.560909827820979</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.560167325330822</v>
+        <v>0.6477112356465731</v>
       </c>
       <c r="O24">
-        <v>3.394418154792049</v>
+        <v>1.93915645935266</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5058164016550393</v>
+        <v>1.226186756665754</v>
       </c>
       <c r="C25">
-        <v>0.04751594264949688</v>
+        <v>0.1621772542439999</v>
       </c>
       <c r="D25">
-        <v>0.3031782918682495</v>
+        <v>0.4190966904440074</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.501501656544733</v>
+        <v>0.9420583488275156</v>
       </c>
       <c r="G25">
-        <v>0.002458015448485164</v>
+        <v>0.0008037207113700508</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3674577108974972</v>
+        <v>0.5106396406022071</v>
       </c>
       <c r="K25">
-        <v>0.4724987284322424</v>
+        <v>1.275911840257777</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.590429790918178</v>
+        <v>0.7203152500202914</v>
       </c>
       <c r="O25">
-        <v>3.407926221071648</v>
+        <v>1.82209441230188</v>
       </c>
     </row>
   </sheetData>
